--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/m6.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/m6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,52 +560,52 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 41</t>
+          <t>Pág 61</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cap. 6 - Disposições Finais</t>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No que tange à preparação da estrutura de mobilização, a quem cabe a responsabilidade de planejar exercícios com o objetivo de treinar e capacitar a elaboração dos Planos de Mobilização?</t>
+          <t>Conforme a concepção de emprego descrita no texto, qual é a natureza e o status de ativação do Comando de Operações Aeroespaciais (COMAE)?</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Aos Comandos das Forças Singulares, de forma independente e descentralizada.</t>
+          <t>É um comando temporário, ativado apenas em caso de guerra declarada, com sede no Rio de Janeiro.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ao EMCFA, por meio da Chefia de Logística e Mobilização (CHELOG).</t>
+          <t>É um órgão de assessoria política do Ministério da Defesa, sem comando de tropas ou meios aéreos.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>À Escola Superior de Guerra (ESG), como órgão central de doutrina.</t>
+          <t>É um Comando Operacional Conjunto, ativado permanentemente, com sede no Distrito Federal e órgão central do SISDABRA.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ao Ministro da Defesa, diretamente, sem delegação a órgãos subordinados.</t>
+          <t>É um comando logístico exclusivo da Força Aérea Brasileira, focado apenas no transporte de carga.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Conforme o **item 6.2.3**, o EMCFA, por meio da CHELOG, planejará exercícios de mobilização com o objetivo de treinar e capacitar a estrutura.</t>
+          <t>Conforme o **item 6.2.1**, o COMAE é um Comando Operacional Conjunto, ativado permanentemente, com sede no DF.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -614,42 +614,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 42</t>
+          <t>Pág 62</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cap. 6 - Disposições Finais</t>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>As Disposições Finais do manual preveem a possibilidade de revisões futuras no documento. Qual é o contexto específico citado que poderia motivar tais revisões?</t>
+          <t>Em relação à cadeia de comando, a quem o COMAE fica diretamente subordinado quando atua como Comando Operacional?</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A necessidade de adequação às normas internacionais da ONU sobre desarmamento.</t>
+          <t>Sempre ao Comandante da Aeronáutica, independentemente se em paz ou em conflito.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A aprovação das normas do Planejamento Baseado em Capacidades (PBC) e do Plano de Articulação e de Equipamento de Defesa (PAED).</t>
+          <t>Ao Comandante Supremo quando em situação de conflito e ao Comandante da Aeronáutica em tempo de paz, ambos via Ministério da Defesa.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A solicitação exclusiva do Congresso Nacional para redução de efetivos em tempo de paz.</t>
+          <t>Diretamente ao Chefe do Estado-Maior Conjunto das Forças Armadas (CEMCFA) em qualquer situação.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>A extinção das empresas estratégicas de defesa listadas nos anexos do manual.</t>
+          <t>Aos Comandantes das três Forças Singulares simultaneamente, através de um conselho diretor.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -659,11 +659,65 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>De acordo com o **item 6.4.2**, este manual poderá sofrer revisões em virtude da aprovação das normas do PBC e do PAED.</t>
+          <t>De acordo com o **item 6.2.6.2**, subordina-se ao Comandante Supremo em conflito e ao Cmt da Aeronáutica na paz, via MD.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pág 63</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Qual é o requisito específico estabelecido para a designação do Comandante do COMAE na sua estrutura organizacional?</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pode ser qualquer Oficial-General de quatro estrelas, alternando-se entre Marinha, Exército e Aeronáutica.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Deve ser um Oficial-General do último posto do quadro de oficiais aviadores da Força Aérea Brasileira.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Deve ser um civil especialista em defesa aeroespacial indicado pelo Presidente da República.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Deve ser o Chefe de Operações Conjuntas do Ministério da Defesa, acumulando as funções.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Segundo o **item 6.3.2**, o Comandante é um Oficial-General do último posto do quadro de oficiais aviadores da FAB.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
